--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5a72b3be143b9d/Documents/R/OvergroundvsTreadmill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{4B8098EA-DB95-42E5-931E-4A847AC0E518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02AE4F3-637B-4434-9E70-700F8F1AEABC}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{4B8098EA-DB95-42E5-931E-4A847AC0E518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30416C49-C520-46B8-87D3-3F43623B19EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69AAFE01-9655-4CD6-852A-103CAF15EF14}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69AAFE01-9655-4CD6-852A-103CAF15EF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$1:$T$41</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -159,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,8 +200,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +220,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -221,10 +235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -232,8 +247,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B60B8A-9045-458A-88AD-BB731CAEB03E}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,7 +656,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -648,57 +665,57 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>87.6</v>
+        <v>70.8</v>
       </c>
       <c r="H2">
-        <v>174.5</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J2" s="1">
-        <v>61</v>
+        <v>57.6</v>
       </c>
       <c r="K2" s="1">
-        <v>8.93</v>
+        <v>7.94</v>
       </c>
       <c r="L2" s="1">
         <v>8.27</v>
       </c>
       <c r="M2">
+        <v>0.154</v>
+      </c>
+      <c r="N2">
+        <v>0.114</v>
+      </c>
+      <c r="O2">
+        <v>0.109</v>
+      </c>
+      <c r="P2">
         <v>0.14499999999999999</v>
       </c>
-      <c r="N2">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="O2">
-        <v>0.105</v>
-      </c>
-      <c r="P2">
-        <v>0.114</v>
-      </c>
       <c r="Q2">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="R2">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="S2">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="T2">
-        <v>4.42</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -707,116 +724,119 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>62.6</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="H3">
-        <v>163.6</v>
+        <v>167.5</v>
       </c>
       <c r="I3" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1">
-        <v>58</v>
+        <v>59.5</v>
       </c>
       <c r="K3" s="1">
-        <v>6.67</v>
+        <v>7.52</v>
       </c>
       <c r="L3" s="1">
-        <v>6.93</v>
+        <v>7.38</v>
       </c>
       <c r="M3">
-        <v>0.18</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="N3">
-        <v>0.19800000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="O3">
-        <v>9.4E-2</v>
+        <v>0.104</v>
       </c>
       <c r="P3">
-        <v>8.2000000000000003E-2</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="Q3">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="R3">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="S3">
-        <v>3.79</v>
+        <v>4.2</v>
       </c>
       <c r="T3">
-        <v>4.3099999999999996</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>70.900000000000006</v>
+        <v>55.9</v>
       </c>
       <c r="H4">
-        <v>174.9</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J4" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K4" s="1">
         <v>9.26</v>
       </c>
       <c r="L4" s="1">
-        <v>9.83</v>
+        <v>10.06</v>
       </c>
       <c r="M4">
-        <v>0.14099999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="N4">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.107</v>
-      </c>
-      <c r="P4">
-        <v>0.14099999999999999</v>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0.245</v>
       </c>
       <c r="Q4">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="R4">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="S4">
-        <v>4.03</v>
+        <v>4.22</v>
       </c>
       <c r="T4">
-        <v>4.0999999999999996</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -831,287 +851,299 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>62.6</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="H5">
-        <v>158.69999999999999</v>
+        <v>171</v>
       </c>
       <c r="I5" s="1">
-        <v>83.5</v>
+        <v>89</v>
       </c>
       <c r="J5" s="1">
-        <v>57.5</v>
+        <v>67</v>
       </c>
       <c r="K5" s="1">
-        <v>6.41</v>
+        <v>6.99</v>
       </c>
       <c r="L5" s="1">
-        <v>6.62</v>
+        <v>7.15</v>
       </c>
       <c r="M5">
-        <v>0.191</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="N5">
-        <v>0.18</v>
+        <v>0.187</v>
       </c>
       <c r="O5">
-        <v>9.9000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="P5">
-        <v>0.113</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="Q5">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="R5">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="S5">
-        <v>3.76</v>
+        <v>3.95</v>
       </c>
       <c r="T5">
-        <v>4.17</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>76.2</v>
+        <v>68.5</v>
       </c>
       <c r="H6">
-        <v>169.5</v>
+        <v>176.8</v>
       </c>
       <c r="I6" s="1">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="J6" s="1">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K6" s="1">
-        <v>7.19</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="L6" s="1">
-        <v>7.6</v>
+        <v>10.28</v>
       </c>
       <c r="M6">
-        <v>0.158</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="N6">
-        <v>0.159</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="O6">
-        <v>0.11</v>
+        <v>0.107</v>
       </c>
       <c r="P6">
-        <v>0.125</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="Q6">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="R6">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="S6">
-        <v>3.97</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="T6">
-        <v>4.42</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7">
-        <v>73.400000000000006</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="H7">
-        <v>168</v>
+        <v>176.3</v>
       </c>
       <c r="I7" s="1">
-        <v>88.5</v>
+        <v>103</v>
       </c>
       <c r="J7" s="1">
-        <v>67.5</v>
+        <v>52</v>
       </c>
       <c r="K7" s="1">
-        <v>6.41</v>
+        <v>8.26</v>
       </c>
       <c r="L7" s="1">
-        <v>6.71</v>
+        <v>8.94</v>
       </c>
       <c r="M7">
-        <v>0.186</v>
+        <v>0.157</v>
       </c>
       <c r="N7">
-        <v>0.214</v>
+        <v>0.156</v>
       </c>
       <c r="O7">
-        <v>9.9000000000000005E-2</v>
+        <v>0.15</v>
       </c>
       <c r="P7">
-        <v>0.13400000000000001</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="Q7">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="R7">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="S7">
-        <v>3.65</v>
+        <v>3.27</v>
       </c>
       <c r="T7">
-        <v>4.05</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>73.400000000000006</v>
+        <v>70</v>
       </c>
       <c r="H8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I8" s="1">
         <v>89</v>
       </c>
       <c r="J8" s="1">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="K8" s="1">
-        <v>6.99</v>
+        <v>9.43</v>
       </c>
       <c r="L8" s="1">
-        <v>7.15</v>
+        <v>9.83</v>
       </c>
       <c r="M8">
-        <v>0.19700000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="N8">
-        <v>0.187</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="O8">
-        <v>8.5000000000000006E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="P8">
-        <v>0.252</v>
+        <v>0.157</v>
       </c>
       <c r="Q8">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="R8">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="S8">
-        <v>3.95</v>
+        <v>4.42</v>
       </c>
       <c r="T8">
-        <v>3.85</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>57.2</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="H9">
-        <v>164.3</v>
+        <v>182.8</v>
       </c>
       <c r="I9" s="1">
-        <v>89.5</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1">
-        <v>55.6</v>
+        <v>55.5</v>
       </c>
       <c r="K9" s="1">
-        <v>6.58</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="L9" s="1">
-        <v>7.6</v>
+        <v>10.28</v>
       </c>
       <c r="M9">
-        <v>0.17899999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="N9">
-        <v>0.17499999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="O9">
-        <v>0.10100000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="P9">
-        <v>0.111</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="Q9">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="R9">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="S9">
-        <v>4.03</v>
+        <v>4.13</v>
       </c>
       <c r="T9">
-        <v>4.46</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1120,347 +1152,362 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>53.1</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="H10">
-        <v>153.19999999999999</v>
+        <v>174.9</v>
       </c>
       <c r="I10" s="1">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J10" s="1">
-        <v>50.5</v>
+        <v>55</v>
       </c>
       <c r="K10" s="1">
-        <v>7.46</v>
+        <v>9.26</v>
       </c>
       <c r="L10" s="1">
-        <v>7.38</v>
+        <v>9.83</v>
       </c>
       <c r="M10">
-        <v>0.14000000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="N10">
-        <v>0.153</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="O10">
-        <v>0.11600000000000001</v>
+        <v>0.107</v>
       </c>
       <c r="P10">
-        <v>1.149</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="Q10">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="R10">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="S10">
-        <v>4.26</v>
+        <v>4.03</v>
       </c>
       <c r="T10">
-        <v>4.8099999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>69.900000000000006</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="H11">
-        <v>167.5</v>
+        <v>181.5</v>
       </c>
       <c r="I11" s="1">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="J11" s="1">
-        <v>59.5</v>
+        <v>58</v>
       </c>
       <c r="K11" s="1">
-        <v>7.52</v>
+        <v>9.26</v>
       </c>
       <c r="L11" s="1">
-        <v>7.38</v>
+        <v>9.83</v>
       </c>
       <c r="M11">
-        <v>0.13800000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="N11">
-        <v>0.16700000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="O11">
-        <v>0.104</v>
+        <v>0.112</v>
       </c>
       <c r="P11">
-        <v>0.34599999999999997</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="Q11">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="R11">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="S11">
-        <v>4.2</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="T11">
-        <v>4.4800000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E12">
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>80.7</v>
+        <v>59</v>
       </c>
       <c r="H12">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I12" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J12" s="1">
-        <v>60.5</v>
+        <v>51</v>
       </c>
       <c r="K12" s="1">
-        <v>7.52</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="L12" s="1">
-        <v>8.27</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="M12">
-        <v>0.16300000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="N12">
-        <v>0.17399999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="O12">
-        <v>9.5000000000000001E-2</v>
+        <v>0.124</v>
       </c>
       <c r="P12">
-        <v>9.9000000000000005E-2</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="Q12">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R12">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="S12">
-        <v>4.1500000000000004</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="T12">
-        <v>4.55</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H13">
+        <v>170.2</v>
+      </c>
+      <c r="I13" s="1">
         <v>89.5</v>
       </c>
-      <c r="H13">
-        <v>172</v>
-      </c>
-      <c r="I13" s="1">
-        <v>87</v>
-      </c>
       <c r="J13" s="1">
-        <v>62.5</v>
+        <v>52</v>
       </c>
       <c r="K13" s="1">
-        <v>7.87</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1">
-        <v>8.0500000000000007</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="M13">
-        <v>0.17299999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="N13">
-        <v>0.17699999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="O13">
-        <v>8.5999999999999993E-2</v>
+        <v>0.1</v>
       </c>
       <c r="P13">
-        <v>0.13700000000000001</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="Q13">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="R13">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="S13">
-        <v>4.07</v>
+        <v>4.41</v>
       </c>
       <c r="T13">
-        <v>4.4400000000000004</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14">
-        <v>70.8</v>
+        <v>78.3</v>
       </c>
       <c r="H14">
-        <v>157.19999999999999</v>
+        <v>174.6</v>
       </c>
       <c r="I14" s="1">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J14" s="1">
-        <v>57.6</v>
+        <v>59</v>
       </c>
       <c r="K14" s="1">
-        <v>7.94</v>
+        <v>9.9</v>
       </c>
       <c r="L14" s="1">
-        <v>8.27</v>
+        <v>10.28</v>
       </c>
       <c r="M14">
-        <v>0.154</v>
+        <v>0.114</v>
       </c>
       <c r="N14">
-        <v>0.114</v>
+        <v>0.124</v>
       </c>
       <c r="O14">
-        <v>0.109</v>
+        <v>0.13</v>
       </c>
       <c r="P14">
-        <v>0.83899999999999997</v>
+        <v>0.121</v>
       </c>
       <c r="Q14">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="R14">
-        <v>603</v>
+        <v>246</v>
       </c>
       <c r="S14">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T14">
-        <v>4.1500000000000004</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>89.8</v>
+        <v>54.8</v>
       </c>
       <c r="H15">
-        <v>164.3</v>
+        <v>158.5</v>
       </c>
       <c r="I15" s="1">
-        <v>82.5</v>
+        <v>85.5</v>
       </c>
       <c r="J15" s="1">
-        <v>64.7</v>
+        <v>54</v>
       </c>
       <c r="K15" s="1">
-        <v>8.6999999999999993</v>
+        <v>9.09</v>
       </c>
       <c r="L15" s="1">
-        <v>8.0500000000000007</v>
+        <v>9.39</v>
       </c>
       <c r="M15">
-        <v>0.11700000000000001</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N15">
-        <v>0.16600000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="O15">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="P15">
-        <v>0.104</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Q15">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="R15">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="S15">
-        <v>4.6100000000000003</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="T15">
-        <v>4.9000000000000004</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -1524,125 +1571,131 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>72.599999999999994</v>
+        <v>65</v>
       </c>
       <c r="H17">
-        <v>176.2</v>
+        <v>182.3</v>
       </c>
       <c r="I17" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J17" s="1">
-        <v>56.4</v>
+        <v>48.5</v>
       </c>
       <c r="K17" s="1">
-        <v>8.1300000000000008</v>
+        <v>10.31</v>
       </c>
       <c r="L17" s="1">
-        <v>8.27</v>
+        <v>10.68</v>
       </c>
       <c r="M17">
-        <v>0.14699999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="N17">
-        <v>0.158</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="O17">
-        <v>0.129</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="P17">
-        <v>0.10299999999999999</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="Q17">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="R17">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="S17">
-        <v>4.08</v>
+        <v>4.55</v>
       </c>
       <c r="T17">
-        <v>4.6100000000000003</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>83.1</v>
+        <v>66.3</v>
       </c>
       <c r="H18">
-        <v>173.5</v>
+        <v>168</v>
       </c>
       <c r="I18" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J18" s="1">
-        <v>58.5</v>
+        <v>57</v>
       </c>
       <c r="K18" s="1">
-        <v>7.58</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="L18" s="1">
-        <v>7.6</v>
+        <v>9.16</v>
       </c>
       <c r="M18">
-        <v>0.14899999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="N18">
-        <v>0.19400000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="O18">
-        <v>0.11899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="P18">
-        <v>1.159</v>
+        <v>0.19</v>
       </c>
       <c r="Q18">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="R18">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="S18">
-        <v>3.91</v>
+        <v>3.83</v>
       </c>
       <c r="T18">
-        <v>4.88</v>
+        <v>4.6900000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1651,57 +1704,57 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19">
-        <v>72</v>
+        <v>87.6</v>
       </c>
       <c r="H19">
-        <v>175</v>
+        <v>174.5</v>
       </c>
       <c r="I19" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K19" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.93</v>
       </c>
       <c r="L19" s="1">
         <v>8.27</v>
       </c>
       <c r="M19">
-        <v>0.15</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="N19">
-        <v>0.16700000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="O19">
-        <v>0.122</v>
+        <v>0.105</v>
       </c>
       <c r="P19">
-        <v>9.4E-2</v>
+        <v>0.114</v>
       </c>
       <c r="Q19">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="R19">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="S19">
-        <v>3.79</v>
+        <v>4.33</v>
       </c>
       <c r="T19">
-        <v>4.4800000000000004</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1710,116 +1763,119 @@
         <v>25</v>
       </c>
       <c r="E20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>74.3</v>
+        <v>89.5</v>
       </c>
       <c r="H20">
-        <v>159.9</v>
+        <v>172</v>
       </c>
       <c r="I20" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J20" s="1">
-        <v>62</v>
+        <v>62.5</v>
       </c>
       <c r="K20" s="1">
-        <v>5.92</v>
+        <v>7.87</v>
       </c>
       <c r="L20" s="1">
-        <v>6.26</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="M20">
-        <v>0.20599999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="N20">
-        <v>0.17799999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="O20">
-        <v>0.114</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="P20">
-        <v>0.13300000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="Q20">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="R20">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="S20">
-        <v>3.27</v>
+        <v>4.07</v>
       </c>
       <c r="T20">
-        <v>4.12</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21">
-        <v>57.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="H21">
-        <v>154</v>
+        <v>162.4</v>
       </c>
       <c r="I21" s="1">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J21" s="1">
-        <v>52</v>
+        <v>57.5</v>
       </c>
       <c r="K21" s="1">
-        <v>5.71</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="L21" s="1">
-        <v>6.04</v>
+        <v>8.94</v>
       </c>
       <c r="M21">
-        <v>0.184</v>
+        <v>0.13</v>
       </c>
       <c r="N21">
-        <v>0.17499999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="O21">
-        <v>0.154</v>
+        <v>0.127</v>
       </c>
       <c r="P21">
-        <v>0.10199999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="Q21">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="R21">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="S21">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="T21">
-        <v>4.3899999999999997</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1827,61 +1883,61 @@
       <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>59</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H22">
-        <v>165</v>
+        <v>180.3</v>
       </c>
       <c r="I22" s="1">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J22" s="1">
-        <v>51</v>
+        <v>58.5</v>
       </c>
       <c r="K22" s="1">
-        <v>8.1300000000000008</v>
+        <v>9.26</v>
       </c>
       <c r="L22" s="1">
-        <v>8.0500000000000007</v>
+        <v>9.83</v>
       </c>
       <c r="M22">
-        <v>0.13300000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="N22">
-        <v>0.151</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="O22">
-        <v>0.124</v>
+        <v>0.109</v>
       </c>
       <c r="P22">
-        <v>0.20399999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="Q22">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="R22">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="S22">
-        <v>4.4400000000000004</v>
+        <v>4.33</v>
       </c>
       <c r="T22">
-        <v>4.4400000000000004</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1889,70 +1945,67 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>86</v>
+        <v>46.3</v>
       </c>
       <c r="H23">
-        <v>181</v>
+        <v>154.9</v>
       </c>
       <c r="I23" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J23" s="1">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K23" s="1">
-        <v>8.6199999999999992</v>
+        <v>7.58</v>
       </c>
       <c r="L23" s="1">
-        <v>8.27</v>
+        <v>7.51</v>
       </c>
       <c r="M23">
-        <v>0.13700000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="N23">
-        <v>0.152</v>
+        <v>0.161</v>
       </c>
       <c r="O23">
-        <v>9.9000000000000005E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="P23">
-        <v>0.109</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="Q23">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="R23">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="S23">
-        <v>4.29</v>
+        <v>4.05</v>
       </c>
       <c r="T23">
-        <v>4.6500000000000004</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1961,113 +2014,110 @@
         <v>10</v>
       </c>
       <c r="G24">
-        <v>70.400000000000006</v>
+        <v>89.8</v>
       </c>
       <c r="H24">
-        <v>170.2</v>
+        <v>164.3</v>
       </c>
       <c r="I24" s="1">
-        <v>89.5</v>
+        <v>82.5</v>
       </c>
       <c r="J24" s="1">
-        <v>52</v>
+        <v>64.7</v>
       </c>
       <c r="K24" s="1">
-        <v>10</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L24" s="1">
-        <v>9.9600000000000009</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="M24">
-        <v>0.13</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="N24">
-        <v>0.10199999999999999</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="O24">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="P24">
-        <v>0.17199999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="Q24">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="R24">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="S24">
-        <v>4.41</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="T24">
-        <v>4.6900000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25">
-        <v>55.9</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="H25">
-        <v>163.30000000000001</v>
+        <v>168</v>
       </c>
       <c r="I25" s="1">
-        <v>87</v>
+        <v>88.5</v>
       </c>
       <c r="J25" s="1">
-        <v>53</v>
+        <v>67.5</v>
       </c>
       <c r="K25" s="1">
-        <v>9.26</v>
+        <v>6.41</v>
       </c>
       <c r="L25" s="1">
-        <v>10.06</v>
+        <v>6.71</v>
       </c>
       <c r="M25">
-        <v>0.11700000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="N25">
-        <v>0.11899999999999999</v>
+        <v>0.214</v>
       </c>
       <c r="O25">
-        <v>0.12</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="P25">
-        <v>0.245</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="Q25">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="R25">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="S25">
-        <v>4.22</v>
+        <v>3.65</v>
       </c>
       <c r="T25">
-        <v>4.72</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -2075,61 +2125,61 @@
       <c r="C26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>18</v>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>66.599999999999994</v>
+        <v>86.8</v>
       </c>
       <c r="H26">
-        <v>176.3</v>
+        <v>182</v>
       </c>
       <c r="I26" s="1">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J26" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K26" s="1">
-        <v>8.26</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L26" s="1">
-        <v>8.94</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="M26">
-        <v>0.157</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="N26">
-        <v>0.156</v>
+        <v>0.158</v>
       </c>
       <c r="O26">
-        <v>0.15</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="P26">
-        <v>0.16700000000000001</v>
+        <v>0.108</v>
       </c>
       <c r="Q26">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="R26">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="S26">
-        <v>3.27</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="T26">
-        <v>3.89</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -2137,70 +2187,67 @@
       <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>19</v>
+      <c r="D27" t="s">
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>67.099999999999994</v>
+        <v>86</v>
       </c>
       <c r="H27">
-        <v>162.4</v>
+        <v>181</v>
       </c>
       <c r="I27" s="1">
         <v>92</v>
       </c>
       <c r="J27" s="1">
-        <v>57.5</v>
+        <v>55</v>
       </c>
       <c r="K27" s="1">
-        <v>8.5500000000000007</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="L27" s="1">
-        <v>8.94</v>
+        <v>8.27</v>
       </c>
       <c r="M27">
-        <v>0.13</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="N27">
-        <v>0.16800000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="O27">
-        <v>0.127</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="P27">
-        <v>0.14199999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="Q27">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="R27">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="S27">
-        <v>4.0999999999999996</v>
+        <v>4.29</v>
       </c>
       <c r="T27">
-        <v>4.95</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>22</v>
@@ -2209,175 +2256,169 @@
         <v>10</v>
       </c>
       <c r="G28">
-        <v>78.3</v>
+        <v>80.7</v>
       </c>
       <c r="H28">
-        <v>174.6</v>
+        <v>170</v>
       </c>
       <c r="I28" s="1">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J28" s="1">
-        <v>59</v>
+        <v>60.5</v>
       </c>
       <c r="K28" s="1">
-        <v>9.9</v>
+        <v>7.52</v>
       </c>
       <c r="L28" s="1">
-        <v>10.28</v>
+        <v>8.27</v>
       </c>
       <c r="M28">
-        <v>0.114</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="N28">
-        <v>0.124</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="O28">
-        <v>0.13</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P28">
-        <v>0.121</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="Q28">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="R28">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="S28">
-        <v>4.0999999999999996</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="T28">
-        <v>5.08</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E29">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G29">
-        <v>72.599999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="H29">
-        <v>180.3</v>
+        <v>169.5</v>
       </c>
       <c r="I29" s="1">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J29" s="1">
-        <v>58.5</v>
+        <v>63</v>
       </c>
       <c r="K29" s="1">
-        <v>9.26</v>
+        <v>7.19</v>
       </c>
       <c r="L29" s="1">
-        <v>9.83</v>
+        <v>7.6</v>
       </c>
       <c r="M29">
-        <v>0.13100000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="N29">
-        <v>0.14699999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="O29">
-        <v>0.109</v>
+        <v>0.11</v>
       </c>
       <c r="P29">
-        <v>0.154</v>
+        <v>0.125</v>
       </c>
       <c r="Q29">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="R29">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="S29">
-        <v>4.33</v>
+        <v>3.97</v>
       </c>
       <c r="T29">
-        <v>5.52</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30">
-        <v>62.8</v>
+        <v>53.1</v>
       </c>
       <c r="H30">
-        <v>162.4</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="I30" s="1">
-        <v>90.5</v>
+        <v>78</v>
       </c>
       <c r="J30" s="1">
-        <v>57.3</v>
+        <v>50.5</v>
       </c>
       <c r="K30" s="1">
-        <v>8.33</v>
+        <v>7.46</v>
       </c>
       <c r="L30" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.38</v>
       </c>
       <c r="M30">
         <v>0.14000000000000001</v>
       </c>
       <c r="N30">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="O30">
-        <v>0.127</v>
-      </c>
-      <c r="P30">
-        <v>0.16500000000000001</v>
+        <v>0.153</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0.115</v>
       </c>
       <c r="Q30">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="R30">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S30">
-        <v>3.88</v>
+        <v>4.26</v>
       </c>
       <c r="T30">
-        <v>4.67</v>
+        <v>4.8099999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -2392,240 +2433,231 @@
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>70</v>
+        <v>62.8</v>
       </c>
       <c r="H31">
-        <v>170</v>
+        <v>162.4</v>
       </c>
       <c r="I31" s="1">
-        <v>89</v>
+        <v>90.5</v>
       </c>
       <c r="J31" s="1">
-        <v>52</v>
+        <v>57.3</v>
       </c>
       <c r="K31" s="1">
-        <v>9.43</v>
+        <v>8.33</v>
       </c>
       <c r="L31" s="1">
-        <v>9.83</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="M31">
-        <v>0.124</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N31">
-        <v>0.11600000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="O31">
-        <v>0.10299999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="P31">
-        <v>0.157</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="Q31">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R31">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="S31">
-        <v>4.42</v>
+        <v>3.88</v>
       </c>
       <c r="T31">
-        <v>4.4800000000000004</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>46.3</v>
+        <v>72</v>
       </c>
       <c r="H32">
-        <v>154.9</v>
+        <v>175</v>
       </c>
       <c r="I32" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J32" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K32" s="1">
-        <v>7.58</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L32" s="1">
-        <v>7.51</v>
+        <v>8.27</v>
       </c>
       <c r="M32">
-        <v>0.14799999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="N32">
-        <v>0.161</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="O32">
-        <v>0.10199999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="P32">
-        <v>0.14499999999999999</v>
+        <v>9.4E-2</v>
       </c>
       <c r="Q32">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="R32">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="S32">
-        <v>4.05</v>
+        <v>3.79</v>
       </c>
       <c r="T32">
-        <v>4.22</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>86.8</v>
+        <v>57.2</v>
       </c>
       <c r="H33">
-        <v>182</v>
+        <v>164.3</v>
       </c>
       <c r="I33" s="1">
-        <v>93</v>
+        <v>89.5</v>
       </c>
       <c r="J33" s="1">
-        <v>56</v>
+        <v>55.6</v>
       </c>
       <c r="K33" s="1">
-        <v>8.6999999999999993</v>
+        <v>6.58</v>
       </c>
       <c r="L33" s="1">
-        <v>8.4499999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="M33">
-        <v>0.14099999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="N33">
-        <v>0.158</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="O33">
-        <v>0.10199999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="P33">
-        <v>0.108</v>
+        <v>0.111</v>
       </c>
       <c r="Q33">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="R33">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="S33">
-        <v>4.3899999999999997</v>
+        <v>4.03</v>
       </c>
       <c r="T33">
-        <v>4.55</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>63.5</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H34">
-        <v>168</v>
+        <v>176.2</v>
       </c>
       <c r="I34" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J34" s="1">
-        <v>57.5</v>
+        <v>56.4</v>
       </c>
       <c r="K34" s="1">
-        <v>8</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="L34" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.27</v>
       </c>
       <c r="M34">
-        <v>0.13800000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="N34">
-        <v>0.14199999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="O34">
-        <v>0.108</v>
+        <v>0.129</v>
       </c>
       <c r="P34">
-        <v>0.126</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="Q34">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R34">
         <v>194</v>
       </c>
       <c r="S34">
-        <v>4.55</v>
+        <v>4.08</v>
       </c>
       <c r="T34">
-        <v>5.08</v>
+        <v>4.6100000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -2633,123 +2665,120 @@
       <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>19</v>
+      <c r="D35" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E35">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35">
-        <v>81.599999999999994</v>
+        <v>63.5</v>
       </c>
       <c r="H35">
-        <v>182.8</v>
+        <v>168</v>
       </c>
       <c r="I35" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J35" s="1">
-        <v>55.5</v>
+        <v>57.5</v>
       </c>
       <c r="K35" s="1">
-        <v>9.7100000000000009</v>
+        <v>8</v>
       </c>
       <c r="L35" s="1">
-        <v>10.28</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="M35">
-        <v>0.127</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="N35">
-        <v>0.14799999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="O35">
-        <v>0.115</v>
+        <v>0.108</v>
       </c>
       <c r="P35">
-        <v>0.14299999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="Q35">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="R35">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="S35">
-        <v>4.13</v>
+        <v>4.55</v>
       </c>
       <c r="T35">
-        <v>4.3499999999999996</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E36">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36">
-        <v>65</v>
+        <v>83.1</v>
       </c>
       <c r="H36">
-        <v>182.3</v>
+        <v>173.5</v>
       </c>
       <c r="I36" s="1">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="J36" s="1">
-        <v>48.5</v>
+        <v>58.5</v>
       </c>
       <c r="K36" s="1">
-        <v>10.31</v>
+        <v>7.58</v>
       </c>
       <c r="L36" s="1">
-        <v>10.68</v>
+        <v>7.6</v>
       </c>
       <c r="M36">
-        <v>0.121</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="N36">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="O36">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="P36">
-        <v>0.11700000000000001</v>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0.159</v>
       </c>
       <c r="Q36">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="R36">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="S36">
-        <v>4.55</v>
+        <v>3.91</v>
       </c>
       <c r="T36">
-        <v>4.9800000000000004</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -2758,306 +2787,297 @@
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
       </c>
       <c r="G37">
-        <v>54.8</v>
+        <v>60</v>
       </c>
       <c r="H37">
-        <v>158.5</v>
+        <v>166</v>
       </c>
       <c r="I37" s="1">
-        <v>85.5</v>
+        <v>91</v>
       </c>
       <c r="J37" s="1">
         <v>54</v>
       </c>
       <c r="K37" s="1">
-        <v>9.09</v>
+        <v>8.4</v>
       </c>
       <c r="L37" s="1">
-        <v>9.39</v>
+        <v>8.27</v>
       </c>
       <c r="M37">
-        <v>6.5000000000000002E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N37">
-        <v>0.125</v>
+        <v>0.157</v>
       </c>
       <c r="O37">
-        <v>0.17</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="P37">
-        <v>0.16500000000000001</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="Q37">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="R37">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="S37">
-        <v>4.8099999999999996</v>
+        <v>4.42</v>
       </c>
       <c r="T37">
-        <v>5.88</v>
+        <v>4.74</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G38">
-        <v>79.400000000000006</v>
+        <v>62.6</v>
       </c>
       <c r="H38">
-        <v>181.5</v>
+        <v>163.6</v>
       </c>
       <c r="I38" s="1">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J38" s="1">
         <v>58</v>
       </c>
       <c r="K38" s="1">
-        <v>9.26</v>
+        <v>6.67</v>
       </c>
       <c r="L38" s="1">
-        <v>9.83</v>
+        <v>6.93</v>
       </c>
       <c r="M38">
-        <v>0.13100000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="N38">
-        <v>0.157</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="O38">
-        <v>0.112</v>
+        <v>9.4E-2</v>
       </c>
       <c r="P38">
-        <v>0.14699999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="Q38">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="R38">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="S38">
+        <v>3.79</v>
+      </c>
+      <c r="T38">
         <v>4.3099999999999996</v>
-      </c>
-      <c r="T38">
-        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39">
         <v>23</v>
-      </c>
-      <c r="E39">
-        <v>20</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39">
-        <v>66.3</v>
+        <v>74.3</v>
       </c>
       <c r="H39">
+        <v>159.9</v>
+      </c>
+      <c r="I39" s="1">
+        <v>85</v>
+      </c>
+      <c r="J39" s="1">
+        <v>62</v>
+      </c>
+      <c r="K39" s="1">
+        <v>5.92</v>
+      </c>
+      <c r="L39" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="M39">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="N39">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.114</v>
+      </c>
+      <c r="P39">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="Q39">
         <v>168</v>
       </c>
-      <c r="I39" s="1">
-        <v>93</v>
-      </c>
-      <c r="J39" s="1">
-        <v>57</v>
-      </c>
-      <c r="K39" s="1">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="L39" s="1">
-        <v>9.16</v>
-      </c>
-      <c r="M39">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="N39">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="O39">
-        <v>0.12</v>
-      </c>
-      <c r="P39">
-        <v>0.19</v>
-      </c>
-      <c r="Q39">
-        <v>216</v>
-      </c>
       <c r="R39">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="S39">
-        <v>3.83</v>
+        <v>3.27</v>
       </c>
       <c r="T39">
-        <v>4.6900000000000004</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40">
-        <v>68.5</v>
+        <v>62.6</v>
       </c>
       <c r="H40">
-        <v>176.8</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="I40" s="1">
-        <v>100</v>
+        <v>83.5</v>
       </c>
       <c r="J40" s="1">
-        <v>55</v>
+        <v>57.5</v>
       </c>
       <c r="K40" s="1">
-        <v>9.6199999999999992</v>
+        <v>6.41</v>
       </c>
       <c r="L40" s="1">
-        <v>10.28</v>
+        <v>6.62</v>
       </c>
       <c r="M40">
-        <v>0.13200000000000001</v>
+        <v>0.191</v>
       </c>
       <c r="N40">
-        <v>0.13100000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="O40">
-        <v>0.107</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="P40">
-        <v>0.17799999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="Q40">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="R40">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="S40">
-        <v>4.2699999999999996</v>
+        <v>3.76</v>
       </c>
       <c r="T40">
-        <v>4.4800000000000004</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E41">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41">
-        <v>60</v>
+        <v>57.1</v>
       </c>
       <c r="H41">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I41" s="1">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J41" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K41" s="1">
-        <v>8.4</v>
+        <v>5.71</v>
       </c>
       <c r="L41" s="1">
-        <v>8.27</v>
+        <v>6.04</v>
       </c>
       <c r="M41">
-        <v>0.14000000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="N41">
-        <v>0.157</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="O41">
-        <v>9.8000000000000004E-2</v>
+        <v>0.154</v>
       </c>
       <c r="P41">
-        <v>0.11700000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="Q41">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="R41">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="S41">
-        <v>4.42</v>
+        <v>3.5</v>
       </c>
       <c r="T41">
-        <v>4.74</v>
+        <v>4.3899999999999997</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:T41">
+    <sortCondition descending="1" ref="R1:R41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3066,9 +3086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B849760-B96C-4EE7-9946-7B73E315E371}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:T1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Dataset.xlsx
+++ b/Dataset.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e5a72b3be143b9d/Documents/R/OvergroundvsTreadmill/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\OneDrive\Documents\R\OvergroundvsTreadmill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{4B8098EA-DB95-42E5-931E-4A847AC0E518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30416C49-C520-46B8-87D3-3F43623B19EE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5662A80D-7985-4BD9-86D9-4378BBAAFC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69AAFE01-9655-4CD6-852A-103CAF15EF14}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69AAFE01-9655-4CD6-852A-103CAF15EF14}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$1:$T$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dataset!$A$1:$P$41</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="47">
   <si>
     <t>Subject</t>
   </si>
@@ -156,6 +156,30 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Sprint_Type</t>
+  </si>
+  <si>
+    <t>Overground</t>
+  </si>
+  <si>
+    <t>Treadmill</t>
+  </si>
+  <si>
+    <t>Contact_Time</t>
+  </si>
+  <si>
+    <t>Stride_Length</t>
+  </si>
+  <si>
+    <t>Stride_Frequency</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Flight_Time</t>
   </si>
 </sst>
 </file>
@@ -563,15 +587,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B60B8A-9045-458A-88AD-BB731CAEB03E}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
@@ -581,15 +605,14 @@
     <col min="8" max="8" width="5.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -621,160 +644,127 @@
         <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
       <c r="G2">
-        <v>70.8</v>
+        <v>59</v>
       </c>
       <c r="H2">
-        <v>157.19999999999999</v>
+        <v>165</v>
       </c>
       <c r="I2" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J2" s="1">
-        <v>57.6</v>
+        <v>51</v>
       </c>
       <c r="K2" s="1">
-        <v>7.94</v>
-      </c>
-      <c r="L2" s="1">
-        <v>8.27</v>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M2">
-        <v>0.154</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="N2">
-        <v>0.114</v>
+        <v>0.124</v>
       </c>
       <c r="O2">
-        <v>0.109</v>
+        <v>189</v>
       </c>
       <c r="P2">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Q2">
-        <v>197</v>
-      </c>
-      <c r="R2">
-        <v>199</v>
-      </c>
-      <c r="S2">
-        <v>3.8</v>
-      </c>
-      <c r="T2">
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>69.900000000000006</v>
+        <v>59</v>
       </c>
       <c r="H3">
-        <v>167.5</v>
+        <v>165</v>
       </c>
       <c r="I3" s="1">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1">
-        <v>59.5</v>
+        <v>51</v>
       </c>
       <c r="K3" s="1">
-        <v>7.52</v>
-      </c>
-      <c r="L3" s="1">
-        <v>7.38</v>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M3">
-        <v>0.13800000000000001</v>
+        <v>0.151</v>
       </c>
       <c r="N3">
-        <v>0.16700000000000001</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="O3">
-        <v>0.104</v>
+        <v>247</v>
       </c>
       <c r="P3">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="Q3">
-        <v>177</v>
-      </c>
-      <c r="R3">
-        <v>164</v>
-      </c>
-      <c r="S3">
-        <v>4.2</v>
-      </c>
-      <c r="T3">
-        <v>4.4800000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -783,119 +773,98 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>55.9</v>
+        <v>86</v>
       </c>
       <c r="H4">
-        <v>163.30000000000001</v>
+        <v>181</v>
       </c>
       <c r="I4" s="1">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J4" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K4" s="1">
-        <v>9.26</v>
-      </c>
-      <c r="L4" s="1">
-        <v>10.06</v>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M4">
-        <v>0.11700000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="N4">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0.245</v>
-      </c>
-      <c r="Q4">
-        <v>209</v>
-      </c>
-      <c r="R4">
-        <v>309</v>
-      </c>
-      <c r="S4">
-        <v>4.22</v>
-      </c>
-      <c r="T4">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O4">
+        <v>202</v>
+      </c>
+      <c r="P4">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>73.400000000000006</v>
+        <v>86</v>
       </c>
       <c r="H5">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I5" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J5" s="1">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1">
-        <v>6.99</v>
-      </c>
-      <c r="L5" s="1">
-        <v>7.15</v>
+        <v>8.27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>0.19700000000000001</v>
+        <v>0.152</v>
       </c>
       <c r="N5">
-        <v>0.187</v>
+        <v>0.109</v>
       </c>
       <c r="O5">
-        <v>8.5000000000000006E-2</v>
+        <v>203</v>
       </c>
       <c r="P5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="Q5">
-        <v>181</v>
-      </c>
-      <c r="R5">
-        <v>294</v>
-      </c>
-      <c r="S5">
-        <v>3.95</v>
-      </c>
-      <c r="T5">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -903,61 +872,49 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>68.5</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="H6">
-        <v>176.8</v>
+        <v>170.2</v>
       </c>
       <c r="I6" s="1">
-        <v>100</v>
+        <v>89.5</v>
       </c>
       <c r="J6" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K6" s="1">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="L6" s="1">
-        <v>10.28</v>
+        <v>10</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>0.13200000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="N6">
-        <v>0.13100000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="O6">
-        <v>0.107</v>
+        <v>221</v>
       </c>
       <c r="P6">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>229</v>
-      </c>
-      <c r="R6">
-        <v>272</v>
-      </c>
-      <c r="S6">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="T6">
-        <v>4.4800000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -965,244 +922,193 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>66.599999999999994</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="H7">
-        <v>176.3</v>
+        <v>170.2</v>
       </c>
       <c r="I7" s="1">
-        <v>103</v>
+        <v>89.5</v>
       </c>
       <c r="J7" s="1">
         <v>52</v>
       </c>
       <c r="K7" s="1">
-        <v>8.26</v>
-      </c>
-      <c r="L7" s="1">
-        <v>8.94</v>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>0.157</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="N7">
-        <v>0.156</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="O7">
-        <v>0.15</v>
+        <v>247</v>
       </c>
       <c r="P7">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="Q7">
-        <v>253</v>
-      </c>
-      <c r="R7">
-        <v>259</v>
-      </c>
-      <c r="S7">
-        <v>3.27</v>
-      </c>
-      <c r="T7">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8">
-        <v>70</v>
+        <v>87.6</v>
       </c>
       <c r="H8">
-        <v>170</v>
+        <v>174.5</v>
       </c>
       <c r="I8" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8" s="1">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K8" s="1">
-        <v>9.43</v>
-      </c>
-      <c r="L8" s="1">
-        <v>9.83</v>
+        <v>8.93</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>0.124</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="N8">
-        <v>0.11600000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="O8">
-        <v>0.10299999999999999</v>
+        <v>210</v>
       </c>
       <c r="P8">
-        <v>0.157</v>
-      </c>
-      <c r="Q8">
-        <v>217</v>
-      </c>
-      <c r="R8">
-        <v>254</v>
-      </c>
-      <c r="S8">
-        <v>4.42</v>
-      </c>
-      <c r="T8">
-        <v>4.4800000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9">
-        <v>81.599999999999994</v>
+        <v>87.6</v>
       </c>
       <c r="H9">
-        <v>182.8</v>
+        <v>174.5</v>
       </c>
       <c r="I9" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1">
-        <v>55.5</v>
+        <v>61</v>
       </c>
       <c r="K9" s="1">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="L9" s="1">
-        <v>10.28</v>
+        <v>8.27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M9">
-        <v>0.127</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="N9">
-        <v>0.14799999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="O9">
-        <v>0.115</v>
+        <v>229</v>
       </c>
       <c r="P9">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="Q9">
-        <v>230</v>
-      </c>
-      <c r="R9">
-        <v>254</v>
-      </c>
-      <c r="S9">
-        <v>4.13</v>
-      </c>
-      <c r="T9">
-        <v>4.3499999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>70.900000000000006</v>
+        <v>55.9</v>
       </c>
       <c r="H10">
-        <v>174.9</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J10" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K10" s="1">
         <v>9.26</v>
       </c>
-      <c r="L10" s="1">
-        <v>9.83</v>
+      <c r="L10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.14799999999999999</v>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.12</v>
       </c>
       <c r="O10">
-        <v>0.107</v>
+        <v>209</v>
       </c>
       <c r="P10">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>231</v>
-      </c>
-      <c r="R10">
-        <v>252</v>
-      </c>
-      <c r="S10">
-        <v>4.03</v>
-      </c>
-      <c r="T10">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1210,61 +1116,49 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
+      <c r="D11" t="s">
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>79.400000000000006</v>
+        <v>55.9</v>
       </c>
       <c r="H11">
-        <v>181.5</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J11" s="1">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K11" s="1">
-        <v>9.26</v>
-      </c>
-      <c r="L11" s="1">
-        <v>9.83</v>
+        <v>10.06</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="N11">
-        <v>0.157</v>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.245</v>
       </c>
       <c r="O11">
-        <v>0.112</v>
+        <v>309</v>
       </c>
       <c r="P11">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="Q11">
-        <v>225</v>
-      </c>
-      <c r="R11">
-        <v>248</v>
-      </c>
-      <c r="S11">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="T11">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1272,61 +1166,49 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12">
-        <v>59</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="H12">
-        <v>165</v>
+        <v>176.3</v>
       </c>
       <c r="I12" s="1">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="J12" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="1">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="L12" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.26</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>0.13300000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="N12">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="O12">
-        <v>0.124</v>
+        <v>253</v>
       </c>
       <c r="P12">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="Q12">
-        <v>189</v>
-      </c>
-      <c r="R12">
-        <v>247</v>
-      </c>
-      <c r="S12">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="T12">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1334,185 +1216,143 @@
       <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
-        <v>16</v>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>70.400000000000006</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="H13">
-        <v>170.2</v>
+        <v>176.3</v>
       </c>
       <c r="I13" s="1">
-        <v>89.5</v>
+        <v>103</v>
       </c>
       <c r="J13" s="1">
         <v>52</v>
       </c>
       <c r="K13" s="1">
-        <v>10</v>
-      </c>
-      <c r="L13" s="1">
-        <v>9.9600000000000009</v>
+        <v>8.94</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>0.13</v>
+        <v>0.156</v>
       </c>
       <c r="N13">
-        <v>0.10199999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="O13">
-        <v>0.1</v>
+        <v>259</v>
       </c>
       <c r="P13">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="Q13">
-        <v>221</v>
-      </c>
-      <c r="R13">
-        <v>247</v>
-      </c>
-      <c r="S13">
-        <v>4.41</v>
-      </c>
-      <c r="T13">
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
         <v>19</v>
       </c>
-      <c r="E14">
-        <v>22</v>
-      </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>78.3</v>
+        <v>62.6</v>
       </c>
       <c r="H14">
-        <v>174.6</v>
+        <v>163.6</v>
       </c>
       <c r="I14" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J14" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K14" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="L14" s="1">
-        <v>10.28</v>
+        <v>6.67</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>0.114</v>
+        <v>0.18</v>
       </c>
       <c r="N14">
-        <v>0.124</v>
+        <v>9.4E-2</v>
       </c>
       <c r="O14">
-        <v>0.13</v>
+        <v>181</v>
       </c>
       <c r="P14">
-        <v>0.121</v>
-      </c>
-      <c r="Q14">
-        <v>208</v>
-      </c>
-      <c r="R14">
-        <v>246</v>
-      </c>
-      <c r="S14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="T14">
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
         <v>19</v>
-      </c>
-      <c r="E15">
-        <v>21</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15">
-        <v>54.8</v>
+        <v>62.6</v>
       </c>
       <c r="H15">
-        <v>158.5</v>
+        <v>163.6</v>
       </c>
       <c r="I15" s="1">
-        <v>85.5</v>
+        <v>90</v>
       </c>
       <c r="J15" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K15" s="1">
-        <v>9.09</v>
-      </c>
-      <c r="L15" s="1">
-        <v>9.39</v>
+        <v>6.93</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>6.5000000000000002E-2</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="N15">
-        <v>0.125</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="O15">
-        <v>0.17</v>
+        <v>183</v>
       </c>
       <c r="P15">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="Q15">
-        <v>200</v>
-      </c>
-      <c r="R15">
-        <v>240</v>
-      </c>
-      <c r="S15">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="T15">
-        <v>5.88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1521,119 +1361,92 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="G16">
-        <v>72</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="H16">
-        <v>176.6</v>
+        <v>174.9</v>
       </c>
       <c r="I16" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="1">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K16" s="1">
-        <v>8.26</v>
-      </c>
-      <c r="L16" s="1">
-        <v>8.0500000000000007</v>
+        <v>9.26</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>0.156</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="N16">
-        <v>0.186</v>
+        <v>0.107</v>
       </c>
       <c r="O16">
-        <v>0.107</v>
+        <v>231</v>
       </c>
       <c r="P16">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="Q16">
-        <v>209</v>
-      </c>
-      <c r="R16">
-        <v>237</v>
-      </c>
-      <c r="S16">
-        <v>3.94</v>
-      </c>
-      <c r="T16">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
         <v>22</v>
-      </c>
-      <c r="E17">
-        <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>65</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="H17">
-        <v>182.3</v>
+        <v>174.9</v>
       </c>
       <c r="I17" s="1">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J17" s="1">
-        <v>48.5</v>
+        <v>55</v>
       </c>
       <c r="K17" s="1">
-        <v>10.31</v>
-      </c>
-      <c r="L17" s="1">
-        <v>10.68</v>
+        <v>9.83</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>0.121</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="N17">
-        <v>0.13200000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="O17">
-        <v>9.9000000000000005E-2</v>
+        <v>252</v>
       </c>
       <c r="P17">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="Q17">
-        <v>225</v>
-      </c>
-      <c r="R17">
-        <v>235</v>
-      </c>
-      <c r="S17">
-        <v>4.55</v>
-      </c>
-      <c r="T17">
-        <v>4.9800000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1642,125 +1455,107 @@
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18">
-        <v>66.3</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="H18">
-        <v>168</v>
+        <v>162.4</v>
       </c>
       <c r="I18" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="1">
-        <v>57</v>
+        <v>57.5</v>
       </c>
       <c r="K18" s="1">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="L18" s="1">
-        <v>9.16</v>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>0.14099999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="N18">
+        <v>0.127</v>
+      </c>
+      <c r="O18">
+        <v>217</v>
+      </c>
+      <c r="P18">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="H19">
+        <v>162.4</v>
+      </c>
+      <c r="I19" s="1">
+        <v>92</v>
+      </c>
+      <c r="J19" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>8.94</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="N19">
         <v>0.14199999999999999</v>
       </c>
-      <c r="O18">
-        <v>0.12</v>
-      </c>
-      <c r="P18">
-        <v>0.19</v>
-      </c>
-      <c r="Q18">
-        <v>216</v>
-      </c>
-      <c r="R18">
-        <v>232</v>
-      </c>
-      <c r="S18">
-        <v>3.83</v>
-      </c>
-      <c r="T18">
-        <v>4.6900000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="O19">
+        <v>222</v>
+      </c>
+      <c r="P19">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>10</v>
       </c>
-      <c r="G19">
-        <v>87.6</v>
-      </c>
-      <c r="H19">
-        <v>174.5</v>
-      </c>
-      <c r="I19" s="1">
-        <v>90</v>
-      </c>
-      <c r="J19" s="1">
-        <v>61</v>
-      </c>
-      <c r="K19" s="1">
-        <v>8.93</v>
-      </c>
-      <c r="L19" s="1">
-        <v>8.27</v>
-      </c>
-      <c r="M19">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="N19">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.105</v>
-      </c>
-      <c r="P19">
-        <v>0.114</v>
-      </c>
-      <c r="Q19">
-        <v>210</v>
-      </c>
-      <c r="R19">
-        <v>229</v>
-      </c>
-      <c r="S19">
-        <v>4.33</v>
-      </c>
-      <c r="T19">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>25</v>
-      </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E20">
         <v>22</v>
@@ -1769,51 +1564,39 @@
         <v>10</v>
       </c>
       <c r="G20">
-        <v>89.5</v>
+        <v>78.3</v>
       </c>
       <c r="H20">
-        <v>172</v>
+        <v>174.6</v>
       </c>
       <c r="I20" s="1">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J20" s="1">
-        <v>62.5</v>
+        <v>59</v>
       </c>
       <c r="K20" s="1">
-        <v>7.87</v>
-      </c>
-      <c r="L20" s="1">
-        <v>8.0500000000000007</v>
+        <v>9.9</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>0.17299999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="N20">
-        <v>0.17699999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="O20">
-        <v>8.5999999999999993E-2</v>
+        <v>208</v>
       </c>
       <c r="P20">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="Q20">
-        <v>198</v>
-      </c>
-      <c r="R20">
-        <v>228</v>
-      </c>
-      <c r="S20">
-        <v>4.07</v>
-      </c>
-      <c r="T20">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1825,181 +1608,139 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>78.3</v>
+      </c>
+      <c r="H21">
+        <v>174.6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>94</v>
+      </c>
+      <c r="J21" s="1">
+        <v>59</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21">
+        <v>0.124</v>
+      </c>
+      <c r="N21">
+        <v>0.121</v>
+      </c>
+      <c r="O21">
+        <v>246</v>
+      </c>
+      <c r="P21">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>11</v>
       </c>
-      <c r="G21">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="H21">
-        <v>162.4</v>
-      </c>
-      <c r="I21" s="1">
-        <v>92</v>
-      </c>
-      <c r="J21" s="1">
-        <v>57.5</v>
-      </c>
-      <c r="K21" s="1">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="L21" s="1">
-        <v>8.94</v>
-      </c>
-      <c r="M21">
-        <v>0.13</v>
-      </c>
-      <c r="N21">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="O21">
-        <v>0.127</v>
-      </c>
-      <c r="P21">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="Q21">
-        <v>217</v>
-      </c>
-      <c r="R21">
-        <v>222</v>
-      </c>
-      <c r="S21">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="T21">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>14</v>
-      </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>72.599999999999994</v>
+        <v>62.6</v>
       </c>
       <c r="H22">
-        <v>180.3</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>96</v>
+        <v>83.5</v>
       </c>
       <c r="J22" s="1">
-        <v>58.5</v>
+        <v>57.5</v>
       </c>
       <c r="K22" s="1">
-        <v>9.26</v>
-      </c>
-      <c r="L22" s="1">
-        <v>9.83</v>
+        <v>6.41</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>0.13100000000000001</v>
+        <v>0.191</v>
       </c>
       <c r="N22">
-        <v>0.14699999999999999</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="O22">
-        <v>0.109</v>
+        <v>163</v>
       </c>
       <c r="P22">
-        <v>0.154</v>
-      </c>
-      <c r="Q22">
-        <v>218</v>
-      </c>
-      <c r="R22">
-        <v>216</v>
-      </c>
-      <c r="S22">
-        <v>4.33</v>
-      </c>
-      <c r="T22">
-        <v>5.52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23">
-        <v>46.3</v>
+        <v>62.6</v>
       </c>
       <c r="H23">
-        <v>154.9</v>
+        <v>158.69999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>87</v>
+        <v>83.5</v>
       </c>
       <c r="J23" s="1">
-        <v>47</v>
+        <v>57.5</v>
       </c>
       <c r="K23" s="1">
-        <v>7.58</v>
-      </c>
-      <c r="L23" s="1">
-        <v>7.51</v>
+        <v>6.62</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M23">
-        <v>0.14799999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="N23">
-        <v>0.161</v>
+        <v>0.113</v>
       </c>
       <c r="O23">
-        <v>0.10199999999999999</v>
+        <v>174</v>
       </c>
       <c r="P23">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="Q23">
-        <v>189</v>
-      </c>
-      <c r="R23">
-        <v>210</v>
-      </c>
-      <c r="S23">
-        <v>4.05</v>
-      </c>
-      <c r="T23">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -2008,57 +1749,45 @@
         <v>25</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G24">
-        <v>89.8</v>
+        <v>76.2</v>
       </c>
       <c r="H24">
-        <v>164.3</v>
+        <v>169.5</v>
       </c>
       <c r="I24" s="1">
-        <v>82.5</v>
+        <v>89</v>
       </c>
       <c r="J24" s="1">
-        <v>64.7</v>
+        <v>63</v>
       </c>
       <c r="K24" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L24" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.19</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>0.11700000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="N24">
-        <v>0.16600000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="O24">
-        <v>0.11</v>
+        <v>192</v>
       </c>
       <c r="P24">
-        <v>0.104</v>
-      </c>
-      <c r="Q24">
-        <v>195</v>
-      </c>
-      <c r="R24">
-        <v>209</v>
-      </c>
-      <c r="S24">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="T24">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -2067,299 +1796,239 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25">
+        <v>76.2</v>
+      </c>
+      <c r="H25">
+        <v>169.5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>89</v>
+      </c>
+      <c r="J25" s="1">
+        <v>63</v>
+      </c>
+      <c r="K25" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25">
+        <v>0.159</v>
+      </c>
+      <c r="N25">
+        <v>0.125</v>
+      </c>
+      <c r="O25">
+        <v>201</v>
+      </c>
+      <c r="P25">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
         <v>73.400000000000006</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>168</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I26" s="1">
         <v>88.5</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J26" s="1">
         <v>67.5</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K26" s="1">
         <v>6.41</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>0.186</v>
+      </c>
+      <c r="N26">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O26">
+        <v>181</v>
+      </c>
+      <c r="P26">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H27">
+        <v>168</v>
+      </c>
+      <c r="I27" s="1">
+        <v>88.5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>67.5</v>
+      </c>
+      <c r="K27" s="1">
         <v>6.71</v>
       </c>
-      <c r="M25">
-        <v>0.186</v>
-      </c>
-      <c r="N25">
+      <c r="L27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27">
         <v>0.214</v>
       </c>
-      <c r="O25">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="P25">
+      <c r="N27">
         <v>0.13400000000000001</v>
       </c>
-      <c r="Q25">
-        <v>181</v>
-      </c>
-      <c r="R25">
+      <c r="O27">
         <v>208</v>
       </c>
-      <c r="S25">
-        <v>3.65</v>
-      </c>
-      <c r="T25">
+      <c r="P27">
         <v>4.05</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>86.8</v>
-      </c>
-      <c r="H26">
-        <v>182</v>
-      </c>
-      <c r="I26" s="1">
-        <v>93</v>
-      </c>
-      <c r="J26" s="1">
-        <v>56</v>
-      </c>
-      <c r="K26" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L26" s="1">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="M26">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="N26">
-        <v>0.158</v>
-      </c>
-      <c r="O26">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="P26">
-        <v>0.108</v>
-      </c>
-      <c r="Q26">
-        <v>208</v>
-      </c>
-      <c r="R26">
-        <v>205</v>
-      </c>
-      <c r="S26">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="T26">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27">
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
         <v>21</v>
-      </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>86</v>
-      </c>
-      <c r="H27">
-        <v>181</v>
-      </c>
-      <c r="I27" s="1">
-        <v>92</v>
-      </c>
-      <c r="J27" s="1">
-        <v>55</v>
-      </c>
-      <c r="K27" s="1">
-        <v>8.6199999999999992</v>
-      </c>
-      <c r="L27" s="1">
-        <v>8.27</v>
-      </c>
-      <c r="M27">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="N27">
-        <v>0.152</v>
-      </c>
-      <c r="O27">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="P27">
-        <v>0.109</v>
-      </c>
-      <c r="Q27">
-        <v>202</v>
-      </c>
-      <c r="R27">
-        <v>203</v>
-      </c>
-      <c r="S27">
-        <v>4.29</v>
-      </c>
-      <c r="T27">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>22</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
       </c>
       <c r="G28">
-        <v>80.7</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H28">
-        <v>170</v>
+        <v>180.3</v>
       </c>
       <c r="I28" s="1">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J28" s="1">
-        <v>60.5</v>
+        <v>58.5</v>
       </c>
       <c r="K28" s="1">
-        <v>7.52</v>
-      </c>
-      <c r="L28" s="1">
-        <v>8.27</v>
+        <v>9.26</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>0.16300000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="N28">
-        <v>0.17399999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="O28">
-        <v>9.5000000000000001E-2</v>
+        <v>218</v>
       </c>
       <c r="P28">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="Q28">
-        <v>191</v>
-      </c>
-      <c r="R28">
-        <v>202</v>
-      </c>
-      <c r="S28">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="T28">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>76.2</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H29">
-        <v>169.5</v>
+        <v>180.3</v>
       </c>
       <c r="I29" s="1">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J29" s="1">
-        <v>63</v>
+        <v>58.5</v>
       </c>
       <c r="K29" s="1">
-        <v>7.19</v>
-      </c>
-      <c r="L29" s="1">
-        <v>7.6</v>
+        <v>9.83</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>0.158</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="N29">
-        <v>0.159</v>
+        <v>0.154</v>
       </c>
       <c r="O29">
-        <v>0.11</v>
+        <v>216</v>
       </c>
       <c r="P29">
-        <v>0.125</v>
-      </c>
-      <c r="Q29">
-        <v>192</v>
-      </c>
-      <c r="R29">
-        <v>201</v>
-      </c>
-      <c r="S29">
-        <v>3.97</v>
-      </c>
-      <c r="T29">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -2368,237 +2037,192 @@
         <v>25</v>
       </c>
       <c r="E30">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30">
-        <v>53.1</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="H30">
-        <v>153.19999999999999</v>
+        <v>171</v>
       </c>
       <c r="I30" s="1">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J30" s="1">
-        <v>50.5</v>
+        <v>67</v>
       </c>
       <c r="K30" s="1">
-        <v>7.46</v>
-      </c>
-      <c r="L30" s="1">
-        <v>7.38</v>
+        <v>6.99</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>0.14000000000000001</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="N30">
-        <v>0.153</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="P30" s="7">
-        <v>0.115</v>
-      </c>
-      <c r="Q30">
-        <v>185</v>
-      </c>
-      <c r="R30">
-        <v>201</v>
-      </c>
-      <c r="S30">
-        <v>4.26</v>
-      </c>
-      <c r="T30">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O30">
+        <v>181</v>
+      </c>
+      <c r="P30">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H31">
+        <v>171</v>
+      </c>
+      <c r="I31" s="1">
+        <v>89</v>
+      </c>
+      <c r="J31" s="1">
+        <v>67</v>
+      </c>
+      <c r="K31" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31">
+        <v>0.187</v>
+      </c>
+      <c r="N31">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O31">
+        <v>294</v>
+      </c>
+      <c r="P31">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
         <v>62.8</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>162.4</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I32" s="1">
         <v>90.5</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32" s="1">
         <v>57.3</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K32" s="1">
         <v>8.33</v>
       </c>
-      <c r="L31" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="M31">
+      <c r="L32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N31">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="O31">
+      <c r="N32">
         <v>0.127</v>
       </c>
-      <c r="P31">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="Q31">
+      <c r="O32">
         <v>220</v>
       </c>
-      <c r="R31">
-        <v>200</v>
-      </c>
-      <c r="S31">
+      <c r="P32">
         <v>3.88</v>
       </c>
-      <c r="T31">
-        <v>4.67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32">
-        <v>72</v>
-      </c>
-      <c r="H32">
-        <v>175</v>
-      </c>
-      <c r="I32" s="1">
-        <v>93</v>
-      </c>
-      <c r="J32" s="1">
-        <v>53</v>
-      </c>
-      <c r="K32" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L32" s="1">
-        <v>8.27</v>
-      </c>
-      <c r="M32">
-        <v>0.15</v>
-      </c>
-      <c r="N32">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="O32">
-        <v>0.122</v>
-      </c>
-      <c r="P32">
-        <v>9.4E-2</v>
-      </c>
-      <c r="Q32">
-        <v>222</v>
-      </c>
-      <c r="R32">
-        <v>198</v>
-      </c>
-      <c r="S32">
-        <v>3.79</v>
-      </c>
-      <c r="T32">
-        <v>4.4800000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E33">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
       </c>
       <c r="G33">
-        <v>57.2</v>
+        <v>62.8</v>
       </c>
       <c r="H33">
-        <v>164.3</v>
+        <v>162.4</v>
       </c>
       <c r="I33" s="1">
-        <v>89.5</v>
+        <v>90.5</v>
       </c>
       <c r="J33" s="1">
-        <v>55.6</v>
+        <v>57.3</v>
       </c>
       <c r="K33" s="1">
-        <v>6.58</v>
-      </c>
-      <c r="L33" s="1">
-        <v>7.6</v>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>0.17899999999999999</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="N33">
-        <v>0.17499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="O33">
-        <v>0.10100000000000001</v>
+        <v>200</v>
       </c>
       <c r="P33">
-        <v>0.111</v>
-      </c>
-      <c r="Q33">
-        <v>181</v>
-      </c>
-      <c r="R33">
-        <v>197</v>
-      </c>
-      <c r="S33">
-        <v>4.03</v>
-      </c>
-      <c r="T33">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -2607,178 +2231,142 @@
         <v>25</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G34">
-        <v>72.599999999999994</v>
+        <v>57.2</v>
       </c>
       <c r="H34">
-        <v>176.2</v>
+        <v>164.3</v>
       </c>
       <c r="I34" s="1">
-        <v>93</v>
+        <v>89.5</v>
       </c>
       <c r="J34" s="1">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="K34" s="1">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="L34" s="1">
-        <v>8.27</v>
+        <v>6.58</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>0.14699999999999999</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="N34">
-        <v>0.158</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="O34">
-        <v>0.129</v>
+        <v>181</v>
       </c>
       <c r="P34">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="Q34">
-        <v>195</v>
-      </c>
-      <c r="R34">
-        <v>194</v>
-      </c>
-      <c r="S34">
-        <v>4.08</v>
-      </c>
-      <c r="T34">
-        <v>4.6100000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35">
         <v>24</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35">
-        <v>22</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
       <c r="G35">
-        <v>63.5</v>
+        <v>57.2</v>
       </c>
       <c r="H35">
-        <v>168</v>
+        <v>164.3</v>
       </c>
       <c r="I35" s="1">
-        <v>92</v>
+        <v>89.5</v>
       </c>
       <c r="J35" s="1">
-        <v>57.5</v>
+        <v>55.6</v>
       </c>
       <c r="K35" s="1">
-        <v>8</v>
-      </c>
-      <c r="L35" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.6</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M35">
-        <v>0.13800000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="N35">
-        <v>0.14199999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="O35">
-        <v>0.108</v>
+        <v>197</v>
       </c>
       <c r="P35">
-        <v>0.126</v>
-      </c>
-      <c r="Q35">
-        <v>196</v>
-      </c>
-      <c r="R35">
-        <v>194</v>
-      </c>
-      <c r="S35">
-        <v>4.55</v>
-      </c>
-      <c r="T35">
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E36">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36">
-        <v>83.1</v>
+        <v>70</v>
       </c>
       <c r="H36">
-        <v>173.5</v>
+        <v>170</v>
       </c>
       <c r="I36" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" s="1">
-        <v>58.5</v>
+        <v>52</v>
       </c>
       <c r="K36" s="1">
-        <v>7.58</v>
-      </c>
-      <c r="L36" s="1">
-        <v>7.6</v>
+        <v>9.43</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>0.14899999999999999</v>
+        <v>0.124</v>
       </c>
       <c r="N36">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="P36" s="7">
-        <v>0.159</v>
-      </c>
-      <c r="Q36">
-        <v>198</v>
-      </c>
-      <c r="R36">
-        <v>192</v>
-      </c>
-      <c r="S36">
-        <v>3.91</v>
-      </c>
-      <c r="T36">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="O36">
+        <v>217</v>
+      </c>
+      <c r="P36">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -2787,66 +2375,57 @@
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G37">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H37">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I37" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J37" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="L37" s="1">
-        <v>8.27</v>
+        <v>9.83</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>0.14000000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="N37">
         <v>0.157</v>
       </c>
       <c r="O37">
-        <v>9.8000000000000004E-2</v>
+        <v>254</v>
       </c>
       <c r="P37">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="Q37">
-        <v>194</v>
-      </c>
-      <c r="R37">
-        <v>190</v>
-      </c>
-      <c r="S37">
-        <v>4.42</v>
-      </c>
-      <c r="T37">
-        <v>4.74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E38">
         <v>19</v>
@@ -2855,110 +2434,89 @@
         <v>11</v>
       </c>
       <c r="G38">
-        <v>62.6</v>
+        <v>46.3</v>
       </c>
       <c r="H38">
-        <v>163.6</v>
+        <v>154.9</v>
       </c>
       <c r="I38" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J38" s="1">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K38" s="1">
-        <v>6.67</v>
-      </c>
-      <c r="L38" s="1">
-        <v>6.93</v>
+        <v>7.58</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>0.18</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="N38">
-        <v>0.19800000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="O38">
-        <v>9.4E-2</v>
+        <v>189</v>
       </c>
       <c r="P38">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="Q38">
-        <v>181</v>
-      </c>
-      <c r="R38">
-        <v>183</v>
-      </c>
-      <c r="S38">
-        <v>3.79</v>
-      </c>
-      <c r="T38">
-        <v>4.3099999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
       <c r="G39">
-        <v>74.3</v>
+        <v>46.3</v>
       </c>
       <c r="H39">
-        <v>159.9</v>
+        <v>154.9</v>
       </c>
       <c r="I39" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J39" s="1">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="K39" s="1">
-        <v>5.92</v>
-      </c>
-      <c r="L39" s="1">
-        <v>6.26</v>
+        <v>7.51</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="M39">
-        <v>0.20599999999999999</v>
+        <v>0.161</v>
       </c>
       <c r="N39">
-        <v>0.17799999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="O39">
-        <v>0.114</v>
+        <v>210</v>
       </c>
       <c r="P39">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="Q39">
-        <v>168</v>
-      </c>
-      <c r="R39">
-        <v>175</v>
-      </c>
-      <c r="S39">
-        <v>3.27</v>
-      </c>
-      <c r="T39">
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
@@ -2967,57 +2525,45 @@
         <v>25</v>
       </c>
       <c r="E40">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
       </c>
       <c r="G40">
-        <v>62.6</v>
+        <v>53.1</v>
       </c>
       <c r="H40">
-        <v>158.69999999999999</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="I40" s="1">
-        <v>83.5</v>
+        <v>78</v>
       </c>
       <c r="J40" s="1">
-        <v>57.5</v>
+        <v>50.5</v>
       </c>
       <c r="K40" s="1">
-        <v>6.41</v>
-      </c>
-      <c r="L40" s="1">
-        <v>6.62</v>
+        <v>7.46</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="M40">
-        <v>0.191</v>
-      </c>
-      <c r="N40">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0.11600000000000001</v>
       </c>
       <c r="O40">
-        <v>9.9000000000000005E-2</v>
+        <v>185</v>
       </c>
       <c r="P40">
-        <v>0.113</v>
-      </c>
-      <c r="Q40">
-        <v>163</v>
-      </c>
-      <c r="R40">
-        <v>174</v>
-      </c>
-      <c r="S40">
-        <v>3.76</v>
-      </c>
-      <c r="T40">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -3026,57 +2572,1979 @@
         <v>25</v>
       </c>
       <c r="E41">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41">
+        <v>53.1</v>
+      </c>
+      <c r="H41">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="I41" s="1">
+        <v>78</v>
+      </c>
+      <c r="J41" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="K41" s="1">
+        <v>7.38</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41">
+        <v>0.153</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0.115</v>
+      </c>
+      <c r="O41">
+        <v>201</v>
+      </c>
+      <c r="P41">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H42">
+        <v>167.5</v>
+      </c>
+      <c r="I42" s="1">
+        <v>83</v>
+      </c>
+      <c r="J42" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="K42" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N42">
+        <v>0.104</v>
+      </c>
+      <c r="O42">
+        <v>177</v>
+      </c>
+      <c r="P42">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H43">
+        <v>167.5</v>
+      </c>
+      <c r="I43" s="1">
+        <v>83</v>
+      </c>
+      <c r="J43" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="K43" s="1">
+        <v>7.38</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M43">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="N43">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="O43">
+        <v>164</v>
+      </c>
+      <c r="P43">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>86.8</v>
+      </c>
+      <c r="H44">
+        <v>182</v>
+      </c>
+      <c r="I44" s="1">
+        <v>93</v>
+      </c>
+      <c r="J44" s="1">
+        <v>56</v>
+      </c>
+      <c r="K44" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M44">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N44">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="O44">
+        <v>208</v>
+      </c>
+      <c r="P44">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>86.8</v>
+      </c>
+      <c r="H45">
+        <v>182</v>
+      </c>
+      <c r="I45" s="1">
+        <v>93</v>
+      </c>
+      <c r="J45" s="1">
+        <v>56</v>
+      </c>
+      <c r="K45" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45">
+        <v>0.158</v>
+      </c>
+      <c r="N45">
+        <v>0.108</v>
+      </c>
+      <c r="O45">
+        <v>205</v>
+      </c>
+      <c r="P45">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>23</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>80.7</v>
+      </c>
+      <c r="H46">
+        <v>170</v>
+      </c>
+      <c r="I46" s="1">
+        <v>88</v>
+      </c>
+      <c r="J46" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="K46" s="1">
+        <v>7.52</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M46">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="N46">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="O46">
+        <v>191</v>
+      </c>
+      <c r="P46">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>80.7</v>
+      </c>
+      <c r="H47">
+        <v>170</v>
+      </c>
+      <c r="I47" s="1">
+        <v>88</v>
+      </c>
+      <c r="J47" s="1">
+        <v>60.5</v>
+      </c>
+      <c r="K47" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="N47">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O47">
+        <v>202</v>
+      </c>
+      <c r="P47">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>63.5</v>
+      </c>
+      <c r="H48">
+        <v>168</v>
+      </c>
+      <c r="I48" s="1">
+        <v>92</v>
+      </c>
+      <c r="J48" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="K48" s="1">
+        <v>8</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M48">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="N48">
+        <v>0.108</v>
+      </c>
+      <c r="O48">
+        <v>196</v>
+      </c>
+      <c r="P48">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>63.5</v>
+      </c>
+      <c r="H49">
+        <v>168</v>
+      </c>
+      <c r="I49" s="1">
+        <v>92</v>
+      </c>
+      <c r="J49" s="1">
+        <v>57.5</v>
+      </c>
+      <c r="K49" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="N49">
+        <v>0.126</v>
+      </c>
+      <c r="O49">
+        <v>194</v>
+      </c>
+      <c r="P49">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>89.5</v>
+      </c>
+      <c r="H50">
+        <v>172</v>
+      </c>
+      <c r="I50" s="1">
+        <v>87</v>
+      </c>
+      <c r="J50" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="K50" s="1">
+        <v>7.87</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M50">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="N50">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="O50">
+        <v>198</v>
+      </c>
+      <c r="P50">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>89.5</v>
+      </c>
+      <c r="H51">
+        <v>172</v>
+      </c>
+      <c r="I51" s="1">
+        <v>87</v>
+      </c>
+      <c r="J51" s="1">
+        <v>62.5</v>
+      </c>
+      <c r="K51" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M51">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="N51">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="O51">
+        <v>228</v>
+      </c>
+      <c r="P51">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>26</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H52">
+        <v>182.8</v>
+      </c>
+      <c r="I52" s="1">
+        <v>100</v>
+      </c>
+      <c r="J52" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="K52" s="1">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52">
+        <v>0.127</v>
+      </c>
+      <c r="N52">
+        <v>0.115</v>
+      </c>
+      <c r="O52">
+        <v>230</v>
+      </c>
+      <c r="P52">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H53">
+        <v>182.8</v>
+      </c>
+      <c r="I53" s="1">
+        <v>100</v>
+      </c>
+      <c r="J53" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="K53" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="N53">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="O53">
+        <v>254</v>
+      </c>
+      <c r="P53">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>65</v>
+      </c>
+      <c r="H54">
+        <v>182.3</v>
+      </c>
+      <c r="I54" s="1">
+        <v>97</v>
+      </c>
+      <c r="J54" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="K54" s="1">
+        <v>10.31</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54">
+        <v>0.121</v>
+      </c>
+      <c r="N54">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="O54">
+        <v>225</v>
+      </c>
+      <c r="P54">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>19</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>65</v>
+      </c>
+      <c r="H55">
+        <v>182.3</v>
+      </c>
+      <c r="I55" s="1">
+        <v>97</v>
+      </c>
+      <c r="J55" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="K55" s="1">
+        <v>10.68</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="N55">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="O55">
+        <v>235</v>
+      </c>
+      <c r="P55">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>70.8</v>
+      </c>
+      <c r="H56">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="I56" s="1">
+        <v>91</v>
+      </c>
+      <c r="J56" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="K56" s="1">
+        <v>7.94</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M56">
+        <v>0.154</v>
+      </c>
+      <c r="N56">
+        <v>0.109</v>
+      </c>
+      <c r="O56">
+        <v>197</v>
+      </c>
+      <c r="P56">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>70.8</v>
+      </c>
+      <c r="H57">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="I57" s="1">
+        <v>91</v>
+      </c>
+      <c r="J57" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="K57" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M57">
+        <v>0.114</v>
+      </c>
+      <c r="N57">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O57">
+        <v>199</v>
+      </c>
+      <c r="P57">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>29</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>54.8</v>
+      </c>
+      <c r="H58">
+        <v>158.5</v>
+      </c>
+      <c r="I58" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="J58" s="1">
+        <v>54</v>
+      </c>
+      <c r="K58" s="1">
+        <v>9.09</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N58">
+        <v>0.17</v>
+      </c>
+      <c r="O58">
+        <v>200</v>
+      </c>
+      <c r="P58">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>29</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>54.8</v>
+      </c>
+      <c r="H59">
+        <v>158.5</v>
+      </c>
+      <c r="I59" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="J59" s="1">
+        <v>54</v>
+      </c>
+      <c r="K59" s="1">
+        <v>9.39</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M59">
+        <v>0.125</v>
+      </c>
+      <c r="N59">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="O59">
+        <v>240</v>
+      </c>
+      <c r="P59">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>89.8</v>
+      </c>
+      <c r="H60">
+        <v>164.3</v>
+      </c>
+      <c r="I60" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="J60" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="K60" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M60">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="N60">
+        <v>0.11</v>
+      </c>
+      <c r="O60">
+        <v>195</v>
+      </c>
+      <c r="P60">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>89.8</v>
+      </c>
+      <c r="H61">
+        <v>164.3</v>
+      </c>
+      <c r="I61" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="J61" s="1">
+        <v>64.7</v>
+      </c>
+      <c r="K61" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M61">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="N61">
+        <v>0.104</v>
+      </c>
+      <c r="O61">
+        <v>209</v>
+      </c>
+      <c r="P61">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>72</v>
+      </c>
+      <c r="H62">
+        <v>176.6</v>
+      </c>
+      <c r="I62" s="1">
+        <v>93</v>
+      </c>
+      <c r="J62" s="1">
+        <v>51</v>
+      </c>
+      <c r="K62" s="1">
+        <v>8.26</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M62">
+        <v>0.156</v>
+      </c>
+      <c r="N62">
+        <v>0.107</v>
+      </c>
+      <c r="O62">
+        <v>209</v>
+      </c>
+      <c r="P62">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>31</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>72</v>
+      </c>
+      <c r="H63">
+        <v>176.6</v>
+      </c>
+      <c r="I63" s="1">
+        <v>93</v>
+      </c>
+      <c r="J63" s="1">
+        <v>51</v>
+      </c>
+      <c r="K63" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M63">
+        <v>0.186</v>
+      </c>
+      <c r="N63">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="O63">
+        <v>237</v>
+      </c>
+      <c r="P63">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>19</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="H64">
+        <v>181.5</v>
+      </c>
+      <c r="I64" s="1">
+        <v>99</v>
+      </c>
+      <c r="J64" s="1">
+        <v>58</v>
+      </c>
+      <c r="K64" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M64">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="N64">
+        <v>0.112</v>
+      </c>
+      <c r="O64">
+        <v>225</v>
+      </c>
+      <c r="P64">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>32</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="H65">
+        <v>181.5</v>
+      </c>
+      <c r="I65" s="1">
+        <v>99</v>
+      </c>
+      <c r="J65" s="1">
+        <v>58</v>
+      </c>
+      <c r="K65" s="1">
+        <v>9.83</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65">
+        <v>0.157</v>
+      </c>
+      <c r="N65">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="O65">
+        <v>248</v>
+      </c>
+      <c r="P65">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>33</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H66">
+        <v>176.2</v>
+      </c>
+      <c r="I66" s="1">
+        <v>93</v>
+      </c>
+      <c r="J66" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="K66" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M66">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="N66">
+        <v>0.129</v>
+      </c>
+      <c r="O66">
+        <v>195</v>
+      </c>
+      <c r="P66">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>33</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="H67">
+        <v>176.2</v>
+      </c>
+      <c r="I67" s="1">
+        <v>93</v>
+      </c>
+      <c r="J67" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="K67" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M67">
+        <v>0.158</v>
+      </c>
+      <c r="N67">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="O67">
+        <v>194</v>
+      </c>
+      <c r="P67">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>66.3</v>
+      </c>
+      <c r="H68">
+        <v>168</v>
+      </c>
+      <c r="I68" s="1">
+        <v>93</v>
+      </c>
+      <c r="J68" s="1">
+        <v>57</v>
+      </c>
+      <c r="K68" s="1">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M68">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N68">
+        <v>0.12</v>
+      </c>
+      <c r="O68">
+        <v>216</v>
+      </c>
+      <c r="P68">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <v>66.3</v>
+      </c>
+      <c r="H69">
+        <v>168</v>
+      </c>
+      <c r="I69" s="1">
+        <v>93</v>
+      </c>
+      <c r="J69" s="1">
+        <v>57</v>
+      </c>
+      <c r="K69" s="1">
+        <v>9.16</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="N69">
+        <v>0.19</v>
+      </c>
+      <c r="O69">
+        <v>232</v>
+      </c>
+      <c r="P69">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70">
+        <v>21</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>83.1</v>
+      </c>
+      <c r="H70">
+        <v>173.5</v>
+      </c>
+      <c r="I70" s="1">
+        <v>90</v>
+      </c>
+      <c r="J70" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="K70" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M70">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="O70">
+        <v>198</v>
+      </c>
+      <c r="P70">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>35</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>21</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>83.1</v>
+      </c>
+      <c r="H71">
+        <v>173.5</v>
+      </c>
+      <c r="I71" s="1">
+        <v>90</v>
+      </c>
+      <c r="J71" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="K71" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M71">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="N71" s="7">
+        <v>0.159</v>
+      </c>
+      <c r="O71">
+        <v>192</v>
+      </c>
+      <c r="P71">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>21</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>68.5</v>
+      </c>
+      <c r="H72">
+        <v>176.8</v>
+      </c>
+      <c r="I72" s="1">
+        <v>100</v>
+      </c>
+      <c r="J72" s="1">
+        <v>55</v>
+      </c>
+      <c r="K72" s="1">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M72">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="N72">
+        <v>0.107</v>
+      </c>
+      <c r="O72">
+        <v>229</v>
+      </c>
+      <c r="P72">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73">
+        <v>21</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>68.5</v>
+      </c>
+      <c r="H73">
+        <v>176.8</v>
+      </c>
+      <c r="I73" s="1">
+        <v>100</v>
+      </c>
+      <c r="J73" s="1">
+        <v>55</v>
+      </c>
+      <c r="K73" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M73">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="N73">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="O73">
+        <v>272</v>
+      </c>
+      <c r="P73">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>23</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>60</v>
+      </c>
+      <c r="H74">
+        <v>166</v>
+      </c>
+      <c r="I74" s="1">
+        <v>91</v>
+      </c>
+      <c r="J74" s="1">
+        <v>54</v>
+      </c>
+      <c r="K74" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M74">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N74">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O74">
+        <v>194</v>
+      </c>
+      <c r="P74">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75">
+        <v>23</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75">
+        <v>60</v>
+      </c>
+      <c r="H75">
+        <v>166</v>
+      </c>
+      <c r="I75" s="1">
+        <v>91</v>
+      </c>
+      <c r="J75" s="1">
+        <v>54</v>
+      </c>
+      <c r="K75" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M75">
+        <v>0.157</v>
+      </c>
+      <c r="N75">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="O75">
+        <v>190</v>
+      </c>
+      <c r="P75">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76">
+        <v>21</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>72</v>
+      </c>
+      <c r="H76">
+        <v>175</v>
+      </c>
+      <c r="I76" s="1">
+        <v>93</v>
+      </c>
+      <c r="J76" s="1">
+        <v>53</v>
+      </c>
+      <c r="K76" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M76">
+        <v>0.15</v>
+      </c>
+      <c r="N76">
+        <v>0.122</v>
+      </c>
+      <c r="O76">
+        <v>222</v>
+      </c>
+      <c r="P76">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>21</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>72</v>
+      </c>
+      <c r="H77">
+        <v>175</v>
+      </c>
+      <c r="I77" s="1">
+        <v>93</v>
+      </c>
+      <c r="J77" s="1">
+        <v>53</v>
+      </c>
+      <c r="K77" s="1">
+        <v>8.27</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M77">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="N77">
+        <v>9.4E-2</v>
+      </c>
+      <c r="O77">
+        <v>198</v>
+      </c>
+      <c r="P77">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>23</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>74.3</v>
+      </c>
+      <c r="H78">
+        <v>159.9</v>
+      </c>
+      <c r="I78" s="1">
+        <v>85</v>
+      </c>
+      <c r="J78" s="1">
+        <v>62</v>
+      </c>
+      <c r="K78" s="1">
+        <v>5.92</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M78">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="N78">
+        <v>0.114</v>
+      </c>
+      <c r="O78">
+        <v>168</v>
+      </c>
+      <c r="P78">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79">
+        <v>23</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79">
+        <v>74.3</v>
+      </c>
+      <c r="H79">
+        <v>159.9</v>
+      </c>
+      <c r="I79" s="1">
+        <v>85</v>
+      </c>
+      <c r="J79" s="1">
+        <v>62</v>
+      </c>
+      <c r="K79" s="1">
+        <v>6.26</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M79">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="N79">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="O79">
+        <v>175</v>
+      </c>
+      <c r="P79">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>40</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80">
+        <v>22</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80">
         <v>57.1</v>
       </c>
-      <c r="H41">
+      <c r="H80">
         <v>154</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I80" s="1">
         <v>83</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J80" s="1">
         <v>52</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K80" s="1">
         <v>5.71</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M80">
+        <v>0.184</v>
+      </c>
+      <c r="N80">
+        <v>0.154</v>
+      </c>
+      <c r="O80">
+        <v>182</v>
+      </c>
+      <c r="P80">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81">
+        <v>22</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81">
+        <v>57.1</v>
+      </c>
+      <c r="H81">
+        <v>154</v>
+      </c>
+      <c r="I81" s="1">
+        <v>83</v>
+      </c>
+      <c r="J81" s="1">
+        <v>52</v>
+      </c>
+      <c r="K81" s="1">
         <v>6.04</v>
       </c>
-      <c r="M41">
-        <v>0.184</v>
-      </c>
-      <c r="N41">
+      <c r="L81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M81">
         <v>0.17499999999999999</v>
       </c>
-      <c r="O41">
-        <v>0.154</v>
-      </c>
-      <c r="P41">
+      <c r="N81">
         <v>0.10199999999999999</v>
       </c>
-      <c r="Q41">
-        <v>182</v>
-      </c>
-      <c r="R41">
+      <c r="O81">
         <v>168</v>
       </c>
-      <c r="S41">
-        <v>3.5</v>
-      </c>
-      <c r="T41">
+      <c r="P81">
         <v>4.3899999999999997</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:T41">
-    <sortCondition descending="1" ref="R1:R41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P81">
+    <sortCondition ref="A1:A81"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
